--- a/Heckerling/52nd Heckerling Institute USB.xlsx
+++ b/Heckerling/52nd Heckerling Institute USB.xlsx
@@ -87,9 +87,6 @@
 </t>
   </si>
   <si>
-    <t>Stephanie Loomis- Price</t>
-  </si>
-  <si>
     <t>Samuel A. Donaldson</t>
   </si>
   <si>
@@ -501,9 +498,6 @@
   </si>
   <si>
     <t>After three years of collaborative effort, last summer the Uniform Law Commission approved the Uniform Directed Trust Act. This panel will explore the effective use of directed trusts, including  fiduciary and tax  issues, from drafting, administration, and beneficiary points of view in light of the new uniform act and existing state statutes.</t>
-  </si>
-  <si>
-    <t>III-A. pdf</t>
   </si>
   <si>
     <t>James M. Marion</t>
@@ -1596,6 +1590,12 @@
   </si>
   <si>
     <t>General Sessions</t>
+  </si>
+  <si>
+    <t>Stephanie Loomis-Price</t>
+  </si>
+  <si>
+    <t>III-A.pdf</t>
   </si>
 </sst>
 </file>
@@ -2184,9 +2184,9 @@
   </sheetPr>
   <dimension ref="A1:O118"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="F1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2215,10 +2215,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>3</v>
@@ -2263,7 +2263,7 @@
       </c>
       <c r="D2" s="30"/>
       <c r="E2" s="31" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="F2" s="24"/>
       <c r="G2" s="24"/>
@@ -2286,7 +2286,7 @@
       <c r="C3" s="29"/>
       <c r="D3" s="30"/>
       <c r="E3" s="31" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="F3" s="24"/>
       <c r="G3" s="24"/>
@@ -2314,28 +2314,28 @@
         <v>19</v>
       </c>
       <c r="F4" s="35" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H4" s="12" t="s">
+        <v>503</v>
+      </c>
+      <c r="I4" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="J4" s="12" t="s">
         <v>21</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>22</v>
       </c>
       <c r="K4" s="12"/>
       <c r="L4" s="12"/>
       <c r="M4" s="12"/>
       <c r="N4" s="12" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="O4" s="12" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -2350,7 +2350,7 @@
       </c>
       <c r="D5" s="29"/>
       <c r="E5" s="31" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F5" s="35"/>
       <c r="G5" s="12"/>
@@ -2375,7 +2375,7 @@
       </c>
       <c r="D6" s="29"/>
       <c r="E6" s="31" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="F6" s="35"/>
       <c r="G6" s="12"/>
@@ -2400,22 +2400,22 @@
       </c>
       <c r="D7" s="26"/>
       <c r="E7" s="27" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F7" s="36"/>
       <c r="G7" s="27"/>
       <c r="H7" s="27" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="I7" s="27" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="J7" s="12"/>
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
       <c r="M7" s="12"/>
       <c r="N7" s="12" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="O7" s="12"/>
     </row>
@@ -2431,31 +2431,31 @@
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="35" t="s">
+        <v>498</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="H8" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="35" t="s">
-        <v>500</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="H8" s="12" t="s">
+      <c r="I8" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="I8" s="12" t="s">
+      <c r="J8" s="12" t="s">
         <v>25</v>
-      </c>
-      <c r="J8" s="12" t="s">
-        <v>26</v>
       </c>
       <c r="K8" s="37"/>
       <c r="L8" s="37"/>
       <c r="M8" s="12"/>
       <c r="N8" s="12" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="O8" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -2470,7 +2470,7 @@
       </c>
       <c r="D9" s="29"/>
       <c r="E9" s="31" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F9" s="16"/>
       <c r="G9" s="12"/>
@@ -2495,7 +2495,7 @@
       </c>
       <c r="D10" s="29"/>
       <c r="E10" s="31" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="F10" s="16"/>
       <c r="G10" s="12"/>
@@ -2506,7 +2506,7 @@
       <c r="L10" s="12"/>
       <c r="M10" s="12"/>
       <c r="N10" s="12" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="O10" s="12"/>
     </row>
@@ -2522,16 +2522,16 @@
       </c>
       <c r="D11" s="14"/>
       <c r="E11" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="35" t="s">
+      <c r="G11" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="H11" s="12" t="s">
         <v>29</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>30</v>
       </c>
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
@@ -2539,10 +2539,10 @@
       <c r="L11" s="12"/>
       <c r="M11" s="12"/>
       <c r="N11" s="12" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="O11" s="12" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="45">
@@ -2557,16 +2557,16 @@
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="35" t="s">
+      <c r="G12" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="H12" s="12" t="s">
         <v>32</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="H12" s="12" t="s">
-        <v>33</v>
       </c>
       <c r="I12" s="12"/>
       <c r="J12" s="12"/>
@@ -2574,10 +2574,10 @@
       <c r="L12" s="12"/>
       <c r="M12" s="12"/>
       <c r="N12" s="12" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="O12" s="12" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -2592,7 +2592,7 @@
       </c>
       <c r="D13" s="29"/>
       <c r="E13" s="32" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F13" s="35"/>
       <c r="G13" s="12"/>
@@ -2617,16 +2617,16 @@
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="35" t="s">
+        <v>466</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="H14" s="12" t="s">
         <v>34</v>
-      </c>
-      <c r="F14" s="35" t="s">
-        <v>468</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="H14" s="12" t="s">
-        <v>35</v>
       </c>
       <c r="I14" s="12"/>
       <c r="J14" s="12"/>
@@ -2634,10 +2634,10 @@
       <c r="L14" s="12"/>
       <c r="M14" s="12"/>
       <c r="N14" s="12" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="O14" s="12" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="75">
@@ -2652,16 +2652,16 @@
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>467</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="H15" s="12" t="s">
         <v>36</v>
-      </c>
-      <c r="F15" s="19" t="s">
-        <v>469</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="H15" s="12" t="s">
-        <v>37</v>
       </c>
       <c r="I15" s="12"/>
       <c r="J15" s="12"/>
@@ -2669,10 +2669,10 @@
       <c r="L15" s="12"/>
       <c r="M15" s="12"/>
       <c r="N15" s="12" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="O15" s="12" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -2687,7 +2687,7 @@
       </c>
       <c r="D16" s="29"/>
       <c r="E16" s="31" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="F16" s="16"/>
       <c r="G16" s="12"/>
@@ -2712,16 +2712,16 @@
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="F17" s="19" t="s">
+      <c r="G17" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="H17" s="12" t="s">
         <v>39</v>
-      </c>
-      <c r="G17" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="H17" s="12" t="s">
-        <v>40</v>
       </c>
       <c r="I17" s="12"/>
       <c r="J17" s="12"/>
@@ -2729,10 +2729,10 @@
       <c r="L17" s="12"/>
       <c r="M17" s="12"/>
       <c r="N17" s="12" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="O17" s="12" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="30">
@@ -2747,16 +2747,16 @@
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="F18" s="16" t="s">
+      <c r="G18" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H18" s="12" t="s">
         <v>42</v>
-      </c>
-      <c r="G18" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="H18" s="12" t="s">
-        <v>43</v>
       </c>
       <c r="I18" s="12"/>
       <c r="J18" s="12"/>
@@ -2764,10 +2764,10 @@
       <c r="L18" s="12"/>
       <c r="M18" s="12"/>
       <c r="N18" s="12" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="O18" s="12" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -2782,7 +2782,7 @@
       </c>
       <c r="D19" s="29"/>
       <c r="E19" s="32" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F19" s="16"/>
       <c r="G19" s="12"/>
@@ -2807,16 +2807,16 @@
       </c>
       <c r="D20" s="11"/>
       <c r="E20" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>469</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="H20" s="12" t="s">
         <v>44</v>
-      </c>
-      <c r="F20" s="16" t="s">
-        <v>471</v>
-      </c>
-      <c r="G20" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="H20" s="12" t="s">
-        <v>45</v>
       </c>
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
@@ -2824,10 +2824,10 @@
       <c r="L20" s="12"/>
       <c r="M20" s="12"/>
       <c r="N20" s="12" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="O20" s="12" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="60">
@@ -2842,16 +2842,16 @@
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>468</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H21" s="12" t="s">
         <v>46</v>
-      </c>
-      <c r="F21" s="19" t="s">
-        <v>470</v>
-      </c>
-      <c r="G21" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="H21" s="12" t="s">
-        <v>47</v>
       </c>
       <c r="I21" s="12"/>
       <c r="J21" s="12"/>
@@ -2859,10 +2859,10 @@
       <c r="L21" s="12"/>
       <c r="M21" s="12"/>
       <c r="N21" s="12" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="O21" s="12" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="90">
@@ -2877,16 +2877,16 @@
       </c>
       <c r="D22" s="11"/>
       <c r="E22" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="F22" s="38" t="s">
+        <v>470</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H22" s="12" t="s">
         <v>48</v>
-      </c>
-      <c r="F22" s="38" t="s">
-        <v>472</v>
-      </c>
-      <c r="G22" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="H22" s="12" t="s">
-        <v>49</v>
       </c>
       <c r="I22" s="12"/>
       <c r="J22" s="12"/>
@@ -2894,10 +2894,10 @@
       <c r="L22" s="12"/>
       <c r="M22" s="12"/>
       <c r="N22" s="12" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="O22" s="12" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="75">
@@ -2912,16 +2912,16 @@
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="F23" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="F23" s="16" t="s">
+      <c r="G23" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="H23" s="12" t="s">
         <v>51</v>
-      </c>
-      <c r="G23" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="H23" s="12" t="s">
-        <v>52</v>
       </c>
       <c r="I23" s="12"/>
       <c r="J23" s="12"/>
@@ -2929,10 +2929,10 @@
       <c r="L23" s="12"/>
       <c r="M23" s="12"/>
       <c r="N23" s="12" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="O23" s="12" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -2947,7 +2947,7 @@
       </c>
       <c r="D24" s="29"/>
       <c r="E24" s="32" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F24" s="16"/>
       <c r="G24" s="12"/>
@@ -2971,22 +2971,22 @@
         <v>0.52430555555555558</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H25" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I25" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I25" s="4" t="s">
+      <c r="J25" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J25" s="4" t="s">
+      <c r="N25" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="O25" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="N25" s="4" t="s">
-        <v>489</v>
-      </c>
-      <c r="O25" s="4" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:15">
@@ -3001,10 +3001,10 @@
       </c>
       <c r="D26" s="34"/>
       <c r="E26" s="31" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" ht="75">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="60">
       <c r="A27" s="10">
         <v>43124</v>
       </c>
@@ -3015,35 +3015,35 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E27" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="F27" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="F27" s="16" t="s">
+      <c r="G27" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="G27" s="12" t="s">
+      <c r="H27" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="I27" s="12" t="s">
         <v>81</v>
-      </c>
-      <c r="H27" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="I27" s="12" t="s">
-        <v>82</v>
       </c>
       <c r="J27" s="12"/>
       <c r="K27" s="12"/>
       <c r="L27" s="12"/>
       <c r="M27" s="12"/>
       <c r="N27" s="12" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="O27" s="12" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" ht="60">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="45">
       <c r="A28" s="10">
         <v>43124</v>
       </c>
@@ -3054,19 +3054,19 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E28" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="F28" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="F28" s="16" t="s">
+      <c r="G28" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="G28" s="12" t="s">
+      <c r="H28" s="12" t="s">
         <v>85</v>
-      </c>
-      <c r="H28" s="12" t="s">
-        <v>86</v>
       </c>
       <c r="I28" s="12"/>
       <c r="J28" s="12"/>
@@ -3074,10 +3074,10 @@
       <c r="L28" s="12"/>
       <c r="M28" s="12"/>
       <c r="N28" s="12" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="O28" s="12" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="45">
@@ -3091,35 +3091,35 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E29" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="F29" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="F29" s="16" t="s">
+      <c r="G29" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="G29" s="12" t="s">
+      <c r="H29" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="I29" s="12" t="s">
         <v>77</v>
-      </c>
-      <c r="H29" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="I29" s="12" t="s">
-        <v>78</v>
       </c>
       <c r="J29" s="12"/>
       <c r="K29" s="12"/>
       <c r="L29" s="12"/>
       <c r="M29" s="12"/>
       <c r="N29" s="12" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="O29" s="12" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" ht="60">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="75">
       <c r="A30" s="10">
         <v>43124</v>
       </c>
@@ -3131,32 +3131,32 @@
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="F30" s="16" t="s">
+        <v>500</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="H30" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="F30" s="16" t="s">
-        <v>502</v>
-      </c>
-      <c r="G30" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="H30" s="12" t="s">
+      <c r="I30" s="12" t="s">
         <v>55</v>
-      </c>
-      <c r="I30" s="12" t="s">
-        <v>56</v>
       </c>
       <c r="J30" s="12"/>
       <c r="K30" s="12"/>
       <c r="L30" s="12"/>
       <c r="M30" s="12"/>
       <c r="N30" s="12" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="O30" s="27" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" ht="45">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="60">
       <c r="A31" s="10">
         <v>43124</v>
       </c>
@@ -3167,37 +3167,37 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E31" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="F31" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="F31" s="16" t="s">
+      <c r="G31" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="H31" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="I31" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="G31" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="H31" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="I31" s="12" t="s">
+      <c r="J31" s="12" t="s">
         <v>59</v>
-      </c>
-      <c r="J31" s="12" t="s">
-        <v>60</v>
       </c>
       <c r="K31" s="12"/>
       <c r="L31" s="12"/>
       <c r="M31" s="12"/>
       <c r="N31" s="12" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="O31" s="12" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" ht="30">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="75">
       <c r="A32" s="10">
         <v>43124</v>
       </c>
@@ -3208,37 +3208,37 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E32" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F32" s="16" t="s">
+        <v>472</v>
+      </c>
+      <c r="G32" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="F32" s="16" t="s">
-        <v>474</v>
-      </c>
-      <c r="G32" s="12" t="s">
+      <c r="H32" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="I32" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="H32" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="I32" s="12" t="s">
+      <c r="J32" s="12" t="s">
         <v>94</v>
-      </c>
-      <c r="J32" s="12" t="s">
-        <v>95</v>
       </c>
       <c r="K32" s="12"/>
       <c r="L32" s="12"/>
       <c r="M32" s="12"/>
       <c r="N32" s="12" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="O32" s="12" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" ht="75">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="30">
       <c r="A33" s="10">
         <v>43124</v>
       </c>
@@ -3249,34 +3249,34 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E33" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="F33" s="16" t="s">
+        <v>471</v>
+      </c>
+      <c r="G33" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="F33" s="16" t="s">
-        <v>473</v>
-      </c>
-      <c r="G33" s="12" t="s">
+      <c r="H33" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="H33" s="12" t="s">
+      <c r="I33" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="I33" s="12" t="s">
+      <c r="J33" s="12" t="s">
         <v>90</v>
-      </c>
-      <c r="J33" s="12" t="s">
-        <v>91</v>
       </c>
       <c r="K33" s="12"/>
       <c r="L33" s="12"/>
       <c r="M33" s="12"/>
       <c r="N33" s="12" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="O33" s="12" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="34" spans="1:15">
@@ -3291,7 +3291,7 @@
       </c>
       <c r="D34" s="29"/>
       <c r="E34" s="31" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F34" s="16"/>
       <c r="G34" s="12"/>
@@ -3315,37 +3315,37 @@
         <v>0.72222222222222221</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E35" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="F35" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="F35" s="16" t="s">
+      <c r="G35" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="G35" s="12" t="s">
+      <c r="H35" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="I35" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="H35" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="I35" s="12" t="s">
+      <c r="J35" s="12" t="s">
         <v>118</v>
-      </c>
-      <c r="J35" s="12" t="s">
-        <v>119</v>
       </c>
       <c r="K35" s="12"/>
       <c r="L35" s="12"/>
       <c r="M35" s="12"/>
       <c r="N35" s="12" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="O35" s="12" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" ht="30">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="105">
       <c r="A36" s="10">
         <v>43124</v>
       </c>
@@ -3356,37 +3356,37 @@
         <v>0.72222222222222221</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E36" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="F36" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="F36" s="16" t="s">
+      <c r="G36" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="G36" s="12" t="s">
+      <c r="H36" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="H36" s="12" t="s">
+      <c r="I36" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="I36" s="12" t="s">
+      <c r="J36" s="12" t="s">
         <v>108</v>
-      </c>
-      <c r="J36" s="12" t="s">
-        <v>109</v>
       </c>
       <c r="K36" s="12"/>
       <c r="L36" s="12"/>
       <c r="M36" s="12"/>
       <c r="N36" s="12" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="O36" s="12" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" ht="105">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="30">
       <c r="A37" s="10">
         <v>43124</v>
       </c>
@@ -3397,35 +3397,35 @@
         <v>0.72222222222222221</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E37" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="F37" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="F37" s="16" t="s">
+      <c r="G37" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="G37" s="12" t="s">
+      <c r="H37" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="I37" s="12" t="s">
         <v>102</v>
-      </c>
-      <c r="H37" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="I37" s="12" t="s">
-        <v>103</v>
       </c>
       <c r="J37" s="12"/>
       <c r="K37" s="12"/>
       <c r="L37" s="12"/>
       <c r="M37" s="12"/>
       <c r="N37" s="12" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="O37" s="12" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" ht="90">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" ht="45">
       <c r="A38" s="10">
         <v>43124</v>
       </c>
@@ -3436,37 +3436,37 @@
         <v>0.72222222222222221</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E38" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="F38" s="16" t="s">
+        <v>473</v>
+      </c>
+      <c r="G38" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="F38" s="16" t="s">
-        <v>475</v>
-      </c>
-      <c r="G38" s="12" t="s">
+      <c r="H38" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="I38" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="H38" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="I38" s="12" t="s">
+      <c r="J38" s="12" t="s">
         <v>98</v>
-      </c>
-      <c r="J38" s="12" t="s">
-        <v>99</v>
       </c>
       <c r="K38" s="12"/>
       <c r="L38" s="12"/>
       <c r="M38" s="12"/>
       <c r="N38" s="12" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="O38" s="12" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" ht="45">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="90">
       <c r="A39" s="10">
         <v>43124</v>
       </c>
@@ -3477,34 +3477,34 @@
         <v>0.72222222222222221</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E39" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="F39" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="F39" s="16" t="s">
+      <c r="G39" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="G39" s="12" t="s">
+      <c r="H39" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="I39" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="H39" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="I39" s="12" t="s">
+      <c r="J39" s="12" t="s">
         <v>113</v>
-      </c>
-      <c r="J39" s="12" t="s">
-        <v>114</v>
       </c>
       <c r="K39" s="12"/>
       <c r="L39" s="12"/>
       <c r="M39" s="12"/>
       <c r="N39" s="12" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="O39" s="12" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="40" spans="1:15" ht="30">
@@ -3518,34 +3518,34 @@
         <v>0.72222222222222221</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="E40" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="F40" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="F40" s="16" t="s">
+      <c r="G40" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="G40" s="12" t="s">
+      <c r="H40" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="H40" s="12" t="s">
+      <c r="I40" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="I40" s="12" t="s">
+      <c r="J40" s="12" t="s">
         <v>124</v>
-      </c>
-      <c r="J40" s="12" t="s">
-        <v>125</v>
       </c>
       <c r="K40" s="12"/>
       <c r="L40" s="12"/>
       <c r="M40" s="12"/>
       <c r="N40" s="12" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="O40" s="12" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="41" spans="1:15" ht="75">
@@ -3560,16 +3560,16 @@
       </c>
       <c r="D41" s="11"/>
       <c r="E41" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="F41" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="F41" s="16" t="s">
+      <c r="G41" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="G41" s="12" t="s">
+      <c r="H41" s="12" t="s">
         <v>128</v>
-      </c>
-      <c r="H41" s="12" t="s">
-        <v>129</v>
       </c>
       <c r="I41" s="12"/>
       <c r="J41" s="12"/>
@@ -3577,10 +3577,10 @@
       <c r="L41" s="12"/>
       <c r="M41" s="12"/>
       <c r="N41" s="12" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="O41" s="12" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="42" spans="1:15" ht="60">
@@ -3595,16 +3595,16 @@
       </c>
       <c r="D42" s="11"/>
       <c r="E42" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="F42" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="F42" s="16" t="s">
+      <c r="G42" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="G42" s="12" t="s">
+      <c r="H42" s="12" t="s">
         <v>132</v>
-      </c>
-      <c r="H42" s="12" t="s">
-        <v>133</v>
       </c>
       <c r="I42" s="12"/>
       <c r="J42" s="12"/>
@@ -3612,10 +3612,10 @@
       <c r="L42" s="12"/>
       <c r="M42" s="12"/>
       <c r="N42" s="12" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="O42" s="12" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="43" spans="1:15">
@@ -3630,7 +3630,7 @@
       </c>
       <c r="D43" s="29"/>
       <c r="E43" s="31" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F43" s="16"/>
       <c r="G43" s="12"/>
@@ -3655,16 +3655,16 @@
       </c>
       <c r="D44" s="11"/>
       <c r="E44" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="F44" s="16" t="s">
+        <v>474</v>
+      </c>
+      <c r="G44" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="F44" s="16" t="s">
-        <v>476</v>
-      </c>
-      <c r="G44" s="12" t="s">
-        <v>135</v>
-      </c>
       <c r="H44" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I44" s="12"/>
       <c r="J44" s="12"/>
@@ -3672,10 +3672,10 @@
       <c r="L44" s="12"/>
       <c r="M44" s="12"/>
       <c r="N44" s="12" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="O44" s="12" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="45" spans="1:15" ht="75">
@@ -3690,16 +3690,16 @@
       </c>
       <c r="D45" s="11"/>
       <c r="E45" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="F45" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="F45" s="16" t="s">
+      <c r="G45" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="G45" s="12" t="s">
+      <c r="H45" s="12" t="s">
         <v>138</v>
-      </c>
-      <c r="H45" s="12" t="s">
-        <v>139</v>
       </c>
       <c r="I45" s="12"/>
       <c r="J45" s="12"/>
@@ -3707,10 +3707,10 @@
       <c r="L45" s="12"/>
       <c r="M45" s="12"/>
       <c r="N45" s="12" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="O45" s="12" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="46" spans="1:15">
@@ -3725,7 +3725,7 @@
       </c>
       <c r="D46" s="29"/>
       <c r="E46" s="31" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="F46" s="16"/>
       <c r="G46" s="12"/>
@@ -3738,7 +3738,7 @@
       <c r="N46" s="12"/>
       <c r="O46" s="12"/>
     </row>
-    <row r="47" spans="1:15" ht="105">
+    <row r="47" spans="1:15" ht="45">
       <c r="A47" s="10">
         <v>43125</v>
       </c>
@@ -3749,19 +3749,19 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E47" s="12" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F47" s="16" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="G47" s="12" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H47" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I47" s="12"/>
       <c r="J47" s="12"/>
@@ -3769,13 +3769,13 @@
       <c r="L47" s="12"/>
       <c r="M47" s="12"/>
       <c r="N47" s="12" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="O47" s="12" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" ht="60">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" ht="45">
       <c r="A48" s="10">
         <v>43125</v>
       </c>
@@ -3786,34 +3786,34 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E48" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="F48" s="19" t="s">
+        <v>480</v>
+      </c>
+      <c r="G48" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="H48" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="F48" s="19" t="s">
-        <v>482</v>
-      </c>
-      <c r="G48" s="12" t="s">
+      <c r="I48" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="J48" s="12" t="s">
         <v>152</v>
-      </c>
-      <c r="H48" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="I48" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="J48" s="12" t="s">
-        <v>154</v>
       </c>
       <c r="K48" s="12"/>
       <c r="L48" s="12"/>
       <c r="M48" s="12"/>
       <c r="N48" s="12" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="O48" s="12" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="49" spans="1:15" ht="79.5" customHeight="1">
@@ -3827,39 +3827,39 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="E49" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="F49" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="F49" s="16" t="s">
+      <c r="G49" s="12" t="s">
+        <v>504</v>
+      </c>
+      <c r="H49" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="I49" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="J49" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="G49" s="12" t="s">
+      <c r="K49" s="12" t="s">
         <v>148</v>
-      </c>
-      <c r="H49" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="I49" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="J49" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="K49" s="12" t="s">
-        <v>150</v>
       </c>
       <c r="L49" s="12"/>
       <c r="M49" s="12"/>
       <c r="N49" s="12" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="O49" s="12" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" ht="75">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" ht="105">
       <c r="A50" s="10">
         <v>43125</v>
       </c>
@@ -3871,36 +3871,36 @@
       </c>
       <c r="D50" s="11"/>
       <c r="E50" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="F50" s="16" t="s">
+        <v>501</v>
+      </c>
+      <c r="G50" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="F50" s="16" t="s">
-        <v>503</v>
-      </c>
-      <c r="G50" s="12" t="s">
+      <c r="H50" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="H50" s="12" t="s">
+      <c r="I50" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="I50" s="12" t="s">
+      <c r="J50" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="J50" s="12" t="s">
+      <c r="K50" s="12" t="s">
         <v>144</v>
-      </c>
-      <c r="K50" s="12" t="s">
-        <v>145</v>
       </c>
       <c r="L50" s="12"/>
       <c r="M50" s="12"/>
       <c r="N50" s="12" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="O50" s="27" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" ht="45">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" ht="60">
       <c r="A51" s="10">
         <v>43125</v>
       </c>
@@ -3911,37 +3911,37 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E51" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="F51" s="16" t="s">
+        <v>477</v>
+      </c>
+      <c r="G51" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="H51" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="F51" s="16" t="s">
-        <v>479</v>
-      </c>
-      <c r="G51" s="12" t="s">
+      <c r="I51" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="H51" s="12" t="s">
+      <c r="J51" s="12" t="s">
         <v>164</v>
-      </c>
-      <c r="I51" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="J51" s="12" t="s">
-        <v>166</v>
       </c>
       <c r="K51" s="12"/>
       <c r="L51" s="12"/>
       <c r="M51" s="12"/>
       <c r="N51" s="12" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="O51" s="12" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" ht="60">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" ht="75">
       <c r="A52" s="10">
         <v>43125</v>
       </c>
@@ -3952,34 +3952,34 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E52" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="F52" s="16" t="s">
+        <v>475</v>
+      </c>
+      <c r="G52" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="H52" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="F52" s="16" t="s">
-        <v>477</v>
-      </c>
-      <c r="G52" s="12" t="s">
+      <c r="I52" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="H52" s="12" t="s">
+      <c r="J52" s="12" t="s">
         <v>157</v>
-      </c>
-      <c r="I52" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="J52" s="12" t="s">
-        <v>159</v>
       </c>
       <c r="K52" s="12"/>
       <c r="L52" s="12"/>
       <c r="M52" s="12"/>
       <c r="N52" s="12" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="O52" s="12" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="53" spans="1:15" ht="90">
@@ -3993,32 +3993,32 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E53" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="F53" s="15" t="s">
+        <v>478</v>
+      </c>
+      <c r="G53" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="H53" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="F53" s="15" t="s">
-        <v>480</v>
-      </c>
-      <c r="G53" s="20" t="s">
+      <c r="I53" s="12" t="s">
         <v>168</v>
-      </c>
-      <c r="H53" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="I53" s="12" t="s">
-        <v>170</v>
       </c>
       <c r="J53" s="12"/>
       <c r="K53" s="12"/>
       <c r="L53" s="12"/>
       <c r="M53" s="12"/>
       <c r="N53" s="12" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="O53" s="12" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="54" spans="1:15">
@@ -4033,7 +4033,7 @@
       </c>
       <c r="D54" s="29"/>
       <c r="E54" s="32" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F54" s="15"/>
       <c r="G54" s="20"/>
@@ -4046,7 +4046,7 @@
       <c r="N54" s="12"/>
       <c r="O54" s="12"/>
     </row>
-    <row r="55" spans="1:15" ht="30">
+    <row r="55" spans="1:15" ht="90">
       <c r="A55" s="10">
         <v>43125</v>
       </c>
@@ -4057,35 +4057,35 @@
         <v>0.72222222222222221</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E55" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="F55" s="15" t="s">
+        <v>479</v>
+      </c>
+      <c r="G55" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="H55" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="I55" s="12" t="s">
         <v>175</v>
-      </c>
-      <c r="F55" s="15" t="s">
-        <v>481</v>
-      </c>
-      <c r="G55" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="H55" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="I55" s="12" t="s">
-        <v>177</v>
       </c>
       <c r="J55" s="12"/>
       <c r="K55" s="12"/>
       <c r="L55" s="12"/>
       <c r="M55" s="12"/>
       <c r="N55" s="12" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="O55" s="12" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" ht="90">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" ht="60">
       <c r="A56" s="10">
         <v>43125</v>
       </c>
@@ -4096,35 +4096,35 @@
         <v>0.72222222222222221</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E56" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="F56" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="G56" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="F56" s="16" t="s">
+      <c r="H56" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="I56" s="12" t="s">
         <v>179</v>
-      </c>
-      <c r="G56" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="H56" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="I56" s="12" t="s">
-        <v>181</v>
       </c>
       <c r="J56" s="12"/>
       <c r="K56" s="12"/>
       <c r="L56" s="12"/>
       <c r="M56" s="12"/>
       <c r="N56" s="12" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="O56" s="12" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" ht="60">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" ht="45">
       <c r="A57" s="10">
         <v>43125</v>
       </c>
@@ -4135,37 +4135,37 @@
         <v>0.72222222222222221</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E57" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="F57" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="G57" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="F57" s="16" t="s">
+      <c r="H57" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="G57" s="12" t="s">
+      <c r="I57" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="H57" s="12" t="s">
+      <c r="J57" s="12" t="s">
         <v>185</v>
-      </c>
-      <c r="I57" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="J57" s="12" t="s">
-        <v>187</v>
       </c>
       <c r="K57" s="12"/>
       <c r="L57" s="12"/>
       <c r="M57" s="12"/>
       <c r="N57" s="12" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="O57" s="12" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" ht="45">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" ht="30">
       <c r="A58" s="10">
         <v>43125</v>
       </c>
@@ -4176,19 +4176,19 @@
         <v>0.72222222222222221</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E58" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="F58" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="G58" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="F58" s="16" t="s">
+      <c r="H58" s="12" t="s">
         <v>172</v>
-      </c>
-      <c r="G58" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="H58" s="12" t="s">
-        <v>174</v>
       </c>
       <c r="I58" s="12"/>
       <c r="J58" s="12"/>
@@ -4196,10 +4196,10 @@
       <c r="L58" s="12"/>
       <c r="M58" s="12"/>
       <c r="N58" s="12" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="O58" s="12" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="59" spans="1:15" ht="60">
@@ -4213,40 +4213,40 @@
         <v>0.72222222222222221</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E59" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="F59" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="G59" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="F59" s="16" t="s">
+      <c r="H59" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="G59" s="12" t="s">
+      <c r="I59" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="J59" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="K59" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="H59" s="12" t="s">
+      <c r="L59" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="I59" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="J59" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="K59" s="12" t="s">
+      <c r="M59" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="L59" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="M59" s="12" t="s">
-        <v>194</v>
-      </c>
       <c r="N59" s="12" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="O59" s="12" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="60" spans="1:15" ht="90">
@@ -4260,17 +4260,17 @@
         <v>0.72222222222222221</v>
       </c>
       <c r="D60" s="11" t="s">
+        <v>483</v>
+      </c>
+      <c r="E60" s="15" t="s">
+        <v>484</v>
+      </c>
+      <c r="F60" s="41" t="s">
         <v>485</v>
-      </c>
-      <c r="E60" s="15" t="s">
-        <v>486</v>
-      </c>
-      <c r="F60" s="41" t="s">
-        <v>487</v>
       </c>
       <c r="G60" s="12"/>
       <c r="H60" s="12" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="I60" s="12"/>
       <c r="J60" s="12"/>
@@ -4278,10 +4278,10 @@
       <c r="L60" s="12"/>
       <c r="M60" s="12"/>
       <c r="N60" s="12" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="O60" s="12" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="61" spans="1:15" ht="45">
@@ -4296,16 +4296,16 @@
       </c>
       <c r="D61" s="11"/>
       <c r="E61" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="F61" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="G61" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="F61" s="16" t="s">
-        <v>196</v>
-      </c>
-      <c r="G61" s="12" t="s">
-        <v>197</v>
-      </c>
       <c r="H61" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I61" s="12"/>
       <c r="J61" s="12"/>
@@ -4313,10 +4313,10 @@
       <c r="L61" s="12"/>
       <c r="M61" s="12"/>
       <c r="N61" s="12" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="O61" s="12" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="62" spans="1:15" ht="45">
@@ -4331,16 +4331,16 @@
       </c>
       <c r="D62" s="11"/>
       <c r="E62" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="F62" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="G62" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="F62" s="16" t="s">
-        <v>199</v>
-      </c>
-      <c r="G62" s="12" t="s">
-        <v>200</v>
-      </c>
       <c r="H62" s="12" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I62" s="12"/>
       <c r="J62" s="12"/>
@@ -4348,10 +4348,10 @@
       <c r="L62" s="12"/>
       <c r="M62" s="12"/>
       <c r="N62" s="12" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="O62" s="12" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="63" spans="1:15">
@@ -4366,7 +4366,7 @@
       </c>
       <c r="D63" s="29"/>
       <c r="E63" s="31" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F63" s="16"/>
       <c r="G63" s="12"/>
@@ -4391,29 +4391,29 @@
       </c>
       <c r="D64" s="11"/>
       <c r="E64" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="F64" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="G64" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="F64" s="16" t="s">
+      <c r="H64" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="G64" s="12" t="s">
+      <c r="I64" s="12" t="s">
         <v>203</v>
-      </c>
-      <c r="H64" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="I64" s="12" t="s">
-        <v>205</v>
       </c>
       <c r="J64" s="12"/>
       <c r="K64" s="12"/>
       <c r="L64" s="12"/>
       <c r="M64" s="12"/>
       <c r="N64" s="12" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="O64" s="12" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="65" spans="1:15">
@@ -5387,968 +5387,968 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="21" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D2" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="21" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D3" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="22" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="21" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C5" t="s">
         <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="21" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C6" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D6" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="21" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C7" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D7" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="21" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C8" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D8" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="21" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C9" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D9" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="21" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C10" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D10" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="21" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C11" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D11" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="21" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D12" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="21" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C13" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D13" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="21" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C14" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D14" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="21" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C15" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D15" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="21" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C16" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D16" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="21" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D17" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="21" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D18" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="21" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C19" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D19" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="21" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C20" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D20" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="21" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C21" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D21" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="21" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C22" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D22" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="21" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C23" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D23" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="21" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D24" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="21" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C25" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D25" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="21" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D26" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="21" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C27" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D27" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="21" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C28" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D28" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="21" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C29" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D29" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="21" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C30" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D30" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="21" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C31" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D31" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="21" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C32" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D32" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="22" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B33" s="22" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C33" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D33" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="22" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B34" s="22" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C34" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D34" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="21" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C35" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D35" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="21" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B36" s="21" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C36" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D36" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="21" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B37" s="21" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C37" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D37" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="22" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B38" s="23" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D38" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="21" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B39" s="21" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C39" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D39" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="21" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B40" s="21" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D40" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="21" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B41" s="21" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C41" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D41" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="21" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B42" s="21" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C42" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D42" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="21" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B43" s="21" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C43" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D43" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="21" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B44" s="21" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C44" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D44" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="21" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B45" s="21" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D45" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="21" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B46" s="21" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C46" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D46" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="21" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B47" s="21" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C47" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D47" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="21" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B48" s="21" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C48" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D48" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="21" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B49" s="21" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C49" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D49" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="21" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B50" s="21" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C50" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D50" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="21" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B51" s="21" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C51" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D51" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="21" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B52" s="21" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C52" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D52" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="21" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B53" s="21" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C53" t="s">
         <v>18</v>
       </c>
       <c r="D53" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="21" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B54" s="21" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D54" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="21" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B55" s="21" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C55" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D55" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="21" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B56" s="21" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C56" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D56" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="21" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B57" s="21" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C57" t="s">
         <v>17</v>
       </c>
       <c r="D57" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="22" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B58" s="22" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C58" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D58" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="21" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B59" s="21" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C59" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D59" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="21" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B60" s="21" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C60" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D60" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="21" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B61" s="21" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D61" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="21" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B62" s="21" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C62" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D62" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="22" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B63" s="23" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D63" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="21" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B64" s="21" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C64" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D64" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="21" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B65" s="21" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C65" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D65" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="21" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B66" s="21" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C66" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D66" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="21" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B67" s="21" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C67" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D67" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="21" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B68" s="21" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D68" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="21" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B69" s="21" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C69" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D69" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="21" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B70" s="21" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D70" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="21" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B71" s="21" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C71" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D71" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="22" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B72" s="22" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C72" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D72" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="21" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B73" s="21" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C73" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D73" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
   </sheetData>

--- a/Heckerling/52nd Heckerling Institute USB.xlsx
+++ b/Heckerling/52nd Heckerling Institute USB.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Speakers" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sessions!$A$1:$O$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sessions!$A$1:$O$64</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Speakers!$A$1:$D$1</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="509">
   <si>
     <t>Date</t>
   </si>
@@ -1596,6 +1596,18 @@
   </si>
   <si>
     <t>III-A.pdf</t>
+  </si>
+  <si>
+    <t>Robinson</t>
+  </si>
+  <si>
+    <t>Richard</t>
+  </si>
+  <si>
+    <t>Robinson_Bio2018.pdf</t>
+  </si>
+  <si>
+    <t>Fundamentals Program:</t>
   </si>
 </sst>
 </file>
@@ -1732,8 +1744,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="25">
+  <cellStyleXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1879,7 +1893,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="25">
+  <cellStyles count="27">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1892,6 +1906,7 @@
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1904,6 +1919,7 @@
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2171,7 +2187,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2184,9 +2200,9 @@
   </sheetPr>
   <dimension ref="A1:O118"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="F1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G49" sqref="G49"/>
+    <sheetView tabSelected="1" showRuler="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2309,7 +2325,9 @@
       <c r="C4" s="11">
         <v>0.51041666666666663</v>
       </c>
-      <c r="D4" s="11"/>
+      <c r="D4" s="12" t="s">
+        <v>508</v>
+      </c>
       <c r="E4" s="12" t="s">
         <v>19</v>
       </c>
@@ -3129,7 +3147,9 @@
       <c r="C30" s="11">
         <v>0.72222222222222221</v>
       </c>
-      <c r="D30" s="11"/>
+      <c r="D30" s="12" t="s">
+        <v>508</v>
+      </c>
       <c r="E30" s="15" t="s">
         <v>53</v>
       </c>
@@ -3869,7 +3889,9 @@
       <c r="C50" s="11">
         <v>0.72222222222222221</v>
       </c>
-      <c r="D50" s="11"/>
+      <c r="D50" s="12" t="s">
+        <v>508</v>
+      </c>
       <c r="E50" s="12" t="s">
         <v>139</v>
       </c>
@@ -5335,9 +5357,10 @@
       <c r="O118" s="12"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O1">
+  <autoFilter ref="A1:O64">
     <sortState ref="A2:O64">
-      <sortCondition ref="N1:N64"/>
+      <sortCondition ref="A2:A64"/>
+      <sortCondition ref="B2:B64"/>
     </sortState>
   </autoFilter>
   <sortState ref="A2:O64">
@@ -5357,10 +5380,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D73"/>
+  <dimension ref="A1:D74"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView showRuler="0" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6140,214 +6163,228 @@
       </c>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="22" t="s">
+      <c r="A58" s="21" t="s">
+        <v>505</v>
+      </c>
+      <c r="B58" s="21" t="s">
+        <v>506</v>
+      </c>
+      <c r="C58" t="s">
+        <v>294</v>
+      </c>
+      <c r="D58" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="22" t="s">
         <v>269</v>
       </c>
-      <c r="B58" s="22" t="s">
+      <c r="B59" s="22" t="s">
         <v>355</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C59" t="s">
         <v>307</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D59" t="s">
         <v>419</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" s="21" t="s">
-        <v>270</v>
-      </c>
-      <c r="B59" s="21" t="s">
-        <v>356</v>
-      </c>
-      <c r="C59" t="s">
-        <v>298</v>
-      </c>
-      <c r="D59" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="21" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B60" s="21" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C60" t="s">
         <v>298</v>
       </c>
       <c r="D60" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="21" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B61" s="21" t="s">
-        <v>233</v>
+        <v>357</v>
+      </c>
+      <c r="C61" t="s">
+        <v>298</v>
       </c>
       <c r="D61" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="21" t="s">
+        <v>272</v>
+      </c>
+      <c r="B62" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="D62" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="21" t="s">
         <v>273</v>
       </c>
-      <c r="B62" s="21" t="s">
+      <c r="B63" s="21" t="s">
         <v>326</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C63" t="s">
         <v>307</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D63" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
-      <c r="A63" s="22" t="s">
+    <row r="64" spans="1:4">
+      <c r="A64" s="22" t="s">
         <v>274</v>
       </c>
-      <c r="B63" s="23" t="s">
+      <c r="B64" s="23" t="s">
         <v>275</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D64" t="s">
         <v>424</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64" s="21" t="s">
-        <v>276</v>
-      </c>
-      <c r="B64" s="21" t="s">
-        <v>358</v>
-      </c>
-      <c r="C64" t="s">
-        <v>308</v>
-      </c>
-      <c r="D64" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="21" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B65" s="21" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C65" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D65" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="21" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B66" s="21" t="s">
-        <v>326</v>
+        <v>359</v>
       </c>
       <c r="C66" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D66" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="21" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B67" s="21" t="s">
-        <v>360</v>
+        <v>326</v>
       </c>
       <c r="C67" t="s">
-        <v>296</v>
+        <v>309</v>
       </c>
       <c r="D67" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="21" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B68" s="21" t="s">
-        <v>281</v>
+        <v>360</v>
+      </c>
+      <c r="C68" t="s">
+        <v>296</v>
       </c>
       <c r="D68" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="21" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B69" s="21" t="s">
-        <v>361</v>
-      </c>
-      <c r="C69" t="s">
-        <v>307</v>
+        <v>281</v>
       </c>
       <c r="D69" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="21" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B70" s="21" t="s">
-        <v>284</v>
+        <v>361</v>
+      </c>
+      <c r="C70" t="s">
+        <v>307</v>
       </c>
       <c r="D70" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="21" t="s">
+        <v>283</v>
+      </c>
+      <c r="B71" s="21" t="s">
+        <v>284</v>
+      </c>
+      <c r="D71" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="21" t="s">
         <v>285</v>
       </c>
-      <c r="B71" s="21" t="s">
+      <c r="B72" s="21" t="s">
         <v>362</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C72" t="s">
         <v>310</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D72" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
-      <c r="A72" s="22" t="s">
+    <row r="73" spans="1:4">
+      <c r="A73" s="22" t="s">
         <v>286</v>
       </c>
-      <c r="B72" s="22" t="s">
+      <c r="B73" s="22" t="s">
         <v>324</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C73" t="s">
         <v>311</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D73" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
-      <c r="A73" s="21" t="s">
+    <row r="74" spans="1:4">
+      <c r="A74" s="21" t="s">
         <v>287</v>
       </c>
-      <c r="B73" s="21" t="s">
+      <c r="B74" s="21" t="s">
         <v>363</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C74" t="s">
         <v>312</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D74" t="s">
         <v>433</v>
       </c>
     </row>

--- a/Heckerling/52nd Heckerling Institute USB.xlsx
+++ b/Heckerling/52nd Heckerling Institute USB.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28705"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="32060" windowHeight="17640" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="1100" windowWidth="32060" windowHeight="17640" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sessions" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="510">
   <si>
     <t>Date</t>
   </si>
@@ -132,20 +132,6 @@
     <t>Diana S.C. Zeydel</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Lloyd Leva Plaine Distinguished Lecture                                     </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Money in Politics: A Hydraulic or a Legal Issue?</t>
-    </r>
-  </si>
-  <si>
     <t>Trevor Potter</t>
   </si>
   <si>
@@ -258,29 +244,6 @@
   </si>
   <si>
     <t>I-A.pdf</t>
-  </si>
-  <si>
-    <r>
-      <t>Special Issues in Drafting (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>and Administering</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>) Buy-Sell Agreements</t>
-    </r>
   </si>
   <si>
     <t>The panelists will share best practices in drafting buy-sell agreements in contemplation of divorce, creditors, ownership by charitable and non- charitable trusts and other entities, transfer tax audits, and disputes among business owners.</t>
@@ -1568,12 +1531,6 @@
     <t>Palms Ballroom</t>
   </si>
   <si>
-    <t>Tina Portuondo</t>
-  </si>
-  <si>
-    <t>Patricia D. White</t>
-  </si>
-  <si>
     <t>This panel will analyze the most significant developments of 2017, including the planning implications of enacted or anticipated legislation.
 Edited by: Ronald D. Aucutt and Materials by: Steve R. Akers, Samuel A. Donaldson, Charles D. "Skip" Fox, IV, Jeffrey N. Pennell, and Howard M. Zaritsky</t>
   </si>
@@ -1608,6 +1565,52 @@
   </si>
   <si>
     <t>Fundamentals Program:</t>
+  </si>
+  <si>
+    <t>Tina Portuondo, Director, Heckerling Institute</t>
+  </si>
+  <si>
+    <t>Patricia D. White, Dean, University of Miami School of Law</t>
+  </si>
+  <si>
+    <t>IV-F.pdf</t>
+  </si>
+  <si>
+    <r>
+      <t>Special Issues in Drafting (&lt;i&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>and Administering&lt;/i&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) Buy-Sell Agreements</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;i&gt;Lloyd Leva Plaine Distinguished Lecture &lt;/i&gt; &lt;br&gt;                                   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Money in Politics: A Hydraulic or a Legal Issue?</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1744,8 +1747,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="27">
+  <cellStyleXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1893,7 +1898,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="27">
+  <cellStyles count="29">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1907,6 +1912,7 @@
     <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1920,6 +1926,7 @@
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2201,8 +2208,8 @@
   <dimension ref="A1:O118"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D50" sqref="D50"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2214,7 +2221,8 @@
     <col min="5" max="5" width="49.1640625" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="88.83203125" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="13" width="14.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="14.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="20.83203125" style="4" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="28.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="16" max="16384" width="10.83203125" style="5"/>
@@ -2231,10 +2239,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>3</v>
@@ -2279,7 +2287,7 @@
       </c>
       <c r="D2" s="30"/>
       <c r="E2" s="31" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="F2" s="24"/>
       <c r="G2" s="24"/>
@@ -2302,7 +2310,7 @@
       <c r="C3" s="29"/>
       <c r="D3" s="30"/>
       <c r="E3" s="31" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="F3" s="24"/>
       <c r="G3" s="24"/>
@@ -2326,19 +2334,19 @@
         <v>0.51041666666666663</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>19</v>
       </c>
       <c r="F4" s="35" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="I4" s="12" t="s">
         <v>20</v>
@@ -2350,10 +2358,10 @@
       <c r="L4" s="12"/>
       <c r="M4" s="12"/>
       <c r="N4" s="12" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="O4" s="12" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -2368,7 +2376,7 @@
       </c>
       <c r="D5" s="29"/>
       <c r="E5" s="31" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F5" s="35"/>
       <c r="G5" s="12"/>
@@ -2393,7 +2401,7 @@
       </c>
       <c r="D6" s="29"/>
       <c r="E6" s="31" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="F6" s="35"/>
       <c r="G6" s="12"/>
@@ -2406,7 +2414,7 @@
       <c r="N6" s="12"/>
       <c r="O6" s="12"/>
     </row>
-    <row r="7" spans="1:15" ht="30">
+    <row r="7" spans="1:15" ht="75">
       <c r="A7" s="25">
         <v>43122</v>
       </c>
@@ -2418,22 +2426,22 @@
       </c>
       <c r="D7" s="26"/>
       <c r="E7" s="27" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F7" s="36"/>
       <c r="G7" s="27"/>
       <c r="H7" s="27" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
       <c r="I7" s="27" t="s">
-        <v>497</v>
+        <v>506</v>
       </c>
       <c r="J7" s="12"/>
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
       <c r="M7" s="12"/>
       <c r="N7" s="12" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="O7" s="12"/>
     </row>
@@ -2452,10 +2460,10 @@
         <v>22</v>
       </c>
       <c r="F8" s="35" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H8" s="12" t="s">
         <v>23</v>
@@ -2470,7 +2478,7 @@
       <c r="L8" s="37"/>
       <c r="M8" s="12"/>
       <c r="N8" s="12" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="O8" s="12" t="s">
         <v>26</v>
@@ -2488,7 +2496,7 @@
       </c>
       <c r="D9" s="29"/>
       <c r="E9" s="31" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F9" s="16"/>
       <c r="G9" s="12"/>
@@ -2513,7 +2521,7 @@
       </c>
       <c r="D10" s="29"/>
       <c r="E10" s="31" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="F10" s="16"/>
       <c r="G10" s="12"/>
@@ -2524,7 +2532,7 @@
       <c r="L10" s="12"/>
       <c r="M10" s="12"/>
       <c r="N10" s="12" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="O10" s="12"/>
     </row>
@@ -2546,7 +2554,7 @@
         <v>28</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H11" s="12" t="s">
         <v>29</v>
@@ -2557,10 +2565,10 @@
       <c r="L11" s="12"/>
       <c r="M11" s="12"/>
       <c r="N11" s="12" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="O11" s="12" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="45">
@@ -2581,7 +2589,7 @@
         <v>31</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H12" s="12" t="s">
         <v>32</v>
@@ -2592,10 +2600,10 @@
       <c r="L12" s="12"/>
       <c r="M12" s="12"/>
       <c r="N12" s="12" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="O12" s="12" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -2610,7 +2618,7 @@
       </c>
       <c r="D13" s="29"/>
       <c r="E13" s="32" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F13" s="35"/>
       <c r="G13" s="12"/>
@@ -2638,10 +2646,10 @@
         <v>33</v>
       </c>
       <c r="F14" s="35" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H14" s="12" t="s">
         <v>34</v>
@@ -2652,10 +2660,10 @@
       <c r="L14" s="12"/>
       <c r="M14" s="12"/>
       <c r="N14" s="12" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="O14" s="12" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="75">
@@ -2670,16 +2678,16 @@
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="17" t="s">
+        <v>509</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>465</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="H15" s="12" t="s">
         <v>35</v>
-      </c>
-      <c r="F15" s="19" t="s">
-        <v>467</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="H15" s="12" t="s">
-        <v>36</v>
       </c>
       <c r="I15" s="12"/>
       <c r="J15" s="12"/>
@@ -2687,10 +2695,10 @@
       <c r="L15" s="12"/>
       <c r="M15" s="12"/>
       <c r="N15" s="12" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="O15" s="12" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -2705,7 +2713,7 @@
       </c>
       <c r="D16" s="29"/>
       <c r="E16" s="31" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="F16" s="16"/>
       <c r="G16" s="12"/>
@@ -2730,16 +2738,16 @@
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="F17" s="19" t="s">
+      <c r="G17" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="H17" s="12" t="s">
         <v>38</v>
-      </c>
-      <c r="G17" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="H17" s="12" t="s">
-        <v>39</v>
       </c>
       <c r="I17" s="12"/>
       <c r="J17" s="12"/>
@@ -2747,10 +2755,10 @@
       <c r="L17" s="12"/>
       <c r="M17" s="12"/>
       <c r="N17" s="12" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="O17" s="12" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="30">
@@ -2765,16 +2773,16 @@
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="16" t="s">
+      <c r="G18" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="H18" s="12" t="s">
         <v>41</v>
-      </c>
-      <c r="G18" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="H18" s="12" t="s">
-        <v>42</v>
       </c>
       <c r="I18" s="12"/>
       <c r="J18" s="12"/>
@@ -2782,10 +2790,10 @@
       <c r="L18" s="12"/>
       <c r="M18" s="12"/>
       <c r="N18" s="12" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="O18" s="12" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -2800,7 +2808,7 @@
       </c>
       <c r="D19" s="29"/>
       <c r="E19" s="32" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F19" s="16"/>
       <c r="G19" s="12"/>
@@ -2825,16 +2833,16 @@
       </c>
       <c r="D20" s="11"/>
       <c r="E20" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>467</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H20" s="12" t="s">
         <v>43</v>
-      </c>
-      <c r="F20" s="16" t="s">
-        <v>469</v>
-      </c>
-      <c r="G20" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="H20" s="12" t="s">
-        <v>44</v>
       </c>
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
@@ -2842,10 +2850,10 @@
       <c r="L20" s="12"/>
       <c r="M20" s="12"/>
       <c r="N20" s="12" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="O20" s="12" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="60">
@@ -2860,16 +2868,16 @@
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>466</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="H21" s="12" t="s">
         <v>45</v>
-      </c>
-      <c r="F21" s="19" t="s">
-        <v>468</v>
-      </c>
-      <c r="G21" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="H21" s="12" t="s">
-        <v>46</v>
       </c>
       <c r="I21" s="12"/>
       <c r="J21" s="12"/>
@@ -2877,10 +2885,10 @@
       <c r="L21" s="12"/>
       <c r="M21" s="12"/>
       <c r="N21" s="12" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="O21" s="12" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="90">
@@ -2895,16 +2903,16 @@
       </c>
       <c r="D22" s="11"/>
       <c r="E22" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="F22" s="38" t="s">
+        <v>468</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H22" s="12" t="s">
         <v>47</v>
-      </c>
-      <c r="F22" s="38" t="s">
-        <v>470</v>
-      </c>
-      <c r="G22" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="H22" s="12" t="s">
-        <v>48</v>
       </c>
       <c r="I22" s="12"/>
       <c r="J22" s="12"/>
@@ -2912,10 +2920,10 @@
       <c r="L22" s="12"/>
       <c r="M22" s="12"/>
       <c r="N22" s="12" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="O22" s="12" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="75">
@@ -2930,16 +2938,16 @@
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="F23" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="F23" s="16" t="s">
+      <c r="G23" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H23" s="12" t="s">
         <v>50</v>
-      </c>
-      <c r="G23" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="H23" s="12" t="s">
-        <v>51</v>
       </c>
       <c r="I23" s="12"/>
       <c r="J23" s="12"/>
@@ -2947,10 +2955,10 @@
       <c r="L23" s="12"/>
       <c r="M23" s="12"/>
       <c r="N23" s="12" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="O23" s="12" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -2965,7 +2973,7 @@
       </c>
       <c r="D24" s="29"/>
       <c r="E24" s="32" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F24" s="16"/>
       <c r="G24" s="12"/>
@@ -2989,7 +2997,7 @@
         <v>0.52430555555555558</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H25" s="4" t="s">
         <v>23</v>
@@ -3001,7 +3009,7 @@
         <v>25</v>
       </c>
       <c r="N25" s="4" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="O25" s="4" t="s">
         <v>26</v>
@@ -3019,7 +3027,7 @@
       </c>
       <c r="D26" s="34"/>
       <c r="E26" s="31" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="60">
@@ -3033,32 +3041,32 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E27" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="F27" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="G27" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="F27" s="16" t="s">
+      <c r="H27" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="I27" s="12" t="s">
         <v>79</v>
-      </c>
-      <c r="G27" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="H27" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="I27" s="12" t="s">
-        <v>81</v>
       </c>
       <c r="J27" s="12"/>
       <c r="K27" s="12"/>
       <c r="L27" s="12"/>
       <c r="M27" s="12"/>
       <c r="N27" s="12" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="O27" s="12" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="45">
@@ -3072,19 +3080,19 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E28" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="F28" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="G28" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="F28" s="16" t="s">
+      <c r="H28" s="12" t="s">
         <v>83</v>
-      </c>
-      <c r="G28" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="H28" s="12" t="s">
-        <v>85</v>
       </c>
       <c r="I28" s="12"/>
       <c r="J28" s="12"/>
@@ -3092,10 +3100,10 @@
       <c r="L28" s="12"/>
       <c r="M28" s="12"/>
       <c r="N28" s="12" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="O28" s="12" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="45">
@@ -3109,32 +3117,32 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E29" s="15" t="s">
+        <v>508</v>
+      </c>
+      <c r="F29" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="G29" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="F29" s="16" t="s">
+      <c r="H29" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I29" s="12" t="s">
         <v>75</v>
-      </c>
-      <c r="G29" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="H29" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="I29" s="12" t="s">
-        <v>77</v>
       </c>
       <c r="J29" s="12"/>
       <c r="K29" s="12"/>
       <c r="L29" s="12"/>
       <c r="M29" s="12"/>
       <c r="N29" s="12" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="O29" s="12" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="75">
@@ -3148,32 +3156,32 @@
         <v>0.72222222222222221</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="E30" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="F30" s="16" t="s">
+        <v>496</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="H30" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="F30" s="16" t="s">
-        <v>500</v>
-      </c>
-      <c r="G30" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="H30" s="12" t="s">
+      <c r="I30" s="12" t="s">
         <v>54</v>
-      </c>
-      <c r="I30" s="12" t="s">
-        <v>55</v>
       </c>
       <c r="J30" s="12"/>
       <c r="K30" s="12"/>
       <c r="L30" s="12"/>
       <c r="M30" s="12"/>
       <c r="N30" s="12" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="O30" s="27" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="60">
@@ -3187,34 +3195,34 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E31" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="F31" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="F31" s="16" t="s">
-        <v>57</v>
-      </c>
       <c r="G31" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H31" s="12" t="s">
         <v>29</v>
       </c>
       <c r="I31" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="J31" s="12" t="s">
         <v>58</v>
-      </c>
-      <c r="J31" s="12" t="s">
-        <v>59</v>
       </c>
       <c r="K31" s="12"/>
       <c r="L31" s="12"/>
       <c r="M31" s="12"/>
       <c r="N31" s="12" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="O31" s="12" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="75">
@@ -3228,34 +3236,34 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E32" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="F32" s="16" t="s">
+        <v>470</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="H32" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="I32" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="F32" s="16" t="s">
-        <v>472</v>
-      </c>
-      <c r="G32" s="12" t="s">
+      <c r="J32" s="12" t="s">
         <v>92</v>
-      </c>
-      <c r="H32" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="I32" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="J32" s="12" t="s">
-        <v>94</v>
       </c>
       <c r="K32" s="12"/>
       <c r="L32" s="12"/>
       <c r="M32" s="12"/>
       <c r="N32" s="12" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="O32" s="12" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="30">
@@ -3269,34 +3277,34 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E33" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="F33" s="16" t="s">
+        <v>469</v>
+      </c>
+      <c r="G33" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="H33" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="F33" s="16" t="s">
-        <v>471</v>
-      </c>
-      <c r="G33" s="12" t="s">
+      <c r="I33" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="H33" s="12" t="s">
+      <c r="J33" s="12" t="s">
         <v>88</v>
-      </c>
-      <c r="I33" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="J33" s="12" t="s">
-        <v>90</v>
       </c>
       <c r="K33" s="12"/>
       <c r="L33" s="12"/>
       <c r="M33" s="12"/>
       <c r="N33" s="12" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="O33" s="12" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="34" spans="1:15">
@@ -3311,7 +3319,7 @@
       </c>
       <c r="D34" s="29"/>
       <c r="E34" s="31" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F34" s="16"/>
       <c r="G34" s="12"/>
@@ -3335,34 +3343,34 @@
         <v>0.72222222222222221</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E35" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="F35" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="G35" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="F35" s="16" t="s">
+      <c r="H35" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="I35" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="G35" s="12" t="s">
+      <c r="J35" s="12" t="s">
         <v>116</v>
-      </c>
-      <c r="H35" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="I35" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="J35" s="12" t="s">
-        <v>118</v>
       </c>
       <c r="K35" s="12"/>
       <c r="L35" s="12"/>
       <c r="M35" s="12"/>
       <c r="N35" s="12" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="O35" s="12" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="105">
@@ -3376,34 +3384,34 @@
         <v>0.72222222222222221</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E36" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="F36" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="G36" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="F36" s="16" t="s">
+      <c r="H36" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="G36" s="12" t="s">
+      <c r="I36" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="H36" s="12" t="s">
+      <c r="J36" s="12" t="s">
         <v>106</v>
-      </c>
-      <c r="I36" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="J36" s="12" t="s">
-        <v>108</v>
       </c>
       <c r="K36" s="12"/>
       <c r="L36" s="12"/>
       <c r="M36" s="12"/>
       <c r="N36" s="12" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="O36" s="12" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="30">
@@ -3417,32 +3425,32 @@
         <v>0.72222222222222221</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E37" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="F37" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="G37" s="12" t="s">
         <v>99</v>
-      </c>
-      <c r="F37" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="G37" s="12" t="s">
-        <v>101</v>
       </c>
       <c r="H37" s="12" t="s">
         <v>32</v>
       </c>
       <c r="I37" s="12" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J37" s="12"/>
       <c r="K37" s="12"/>
       <c r="L37" s="12"/>
       <c r="M37" s="12"/>
       <c r="N37" s="12" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="O37" s="12" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="38" spans="1:15" ht="45">
@@ -3456,34 +3464,34 @@
         <v>0.72222222222222221</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E38" s="15" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F38" s="16" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="G38" s="12" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H38" s="12" t="s">
         <v>34</v>
       </c>
       <c r="I38" s="12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="J38" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K38" s="12"/>
       <c r="L38" s="12"/>
       <c r="M38" s="12"/>
       <c r="N38" s="12" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="O38" s="12" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="90">
@@ -3497,34 +3505,34 @@
         <v>0.72222222222222221</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E39" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="F39" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="G39" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="F39" s="16" t="s">
+      <c r="H39" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="G39" s="12" t="s">
+      <c r="J39" s="12" t="s">
         <v>111</v>
-      </c>
-      <c r="H39" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="I39" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="J39" s="12" t="s">
-        <v>113</v>
       </c>
       <c r="K39" s="12"/>
       <c r="L39" s="12"/>
       <c r="M39" s="12"/>
       <c r="N39" s="12" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="O39" s="12" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="40" spans="1:15" ht="30">
@@ -3538,34 +3546,34 @@
         <v>0.72222222222222221</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E40" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="F40" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="G40" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="F40" s="16" t="s">
+      <c r="H40" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="G40" s="12" t="s">
+      <c r="I40" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="H40" s="12" t="s">
+      <c r="J40" s="12" t="s">
         <v>122</v>
-      </c>
-      <c r="I40" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="J40" s="12" t="s">
-        <v>124</v>
       </c>
       <c r="K40" s="12"/>
       <c r="L40" s="12"/>
       <c r="M40" s="12"/>
       <c r="N40" s="12" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="O40" s="12" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="41" spans="1:15" ht="75">
@@ -3580,16 +3588,16 @@
       </c>
       <c r="D41" s="11"/>
       <c r="E41" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="F41" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="G41" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="F41" s="16" t="s">
+      <c r="H41" s="12" t="s">
         <v>126</v>
-      </c>
-      <c r="G41" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="H41" s="12" t="s">
-        <v>128</v>
       </c>
       <c r="I41" s="12"/>
       <c r="J41" s="12"/>
@@ -3597,10 +3605,10 @@
       <c r="L41" s="12"/>
       <c r="M41" s="12"/>
       <c r="N41" s="12" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="O41" s="12" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
     </row>
     <row r="42" spans="1:15" ht="60">
@@ -3615,16 +3623,16 @@
       </c>
       <c r="D42" s="11"/>
       <c r="E42" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="F42" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="G42" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="F42" s="16" t="s">
+      <c r="H42" s="12" t="s">
         <v>130</v>
-      </c>
-      <c r="G42" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="H42" s="12" t="s">
-        <v>132</v>
       </c>
       <c r="I42" s="12"/>
       <c r="J42" s="12"/>
@@ -3632,10 +3640,10 @@
       <c r="L42" s="12"/>
       <c r="M42" s="12"/>
       <c r="N42" s="12" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="O42" s="12" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
     </row>
     <row r="43" spans="1:15">
@@ -3650,7 +3658,7 @@
       </c>
       <c r="D43" s="29"/>
       <c r="E43" s="31" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F43" s="16"/>
       <c r="G43" s="12"/>
@@ -3675,16 +3683,16 @@
       </c>
       <c r="D44" s="11"/>
       <c r="E44" s="12" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F44" s="16" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="G44" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H44" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I44" s="12"/>
       <c r="J44" s="12"/>
@@ -3692,10 +3700,10 @@
       <c r="L44" s="12"/>
       <c r="M44" s="12"/>
       <c r="N44" s="12" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="O44" s="12" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
     </row>
     <row r="45" spans="1:15" ht="75">
@@ -3710,16 +3718,16 @@
       </c>
       <c r="D45" s="11"/>
       <c r="E45" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="F45" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="G45" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="F45" s="16" t="s">
+      <c r="H45" s="12" t="s">
         <v>136</v>
-      </c>
-      <c r="G45" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="H45" s="12" t="s">
-        <v>138</v>
       </c>
       <c r="I45" s="12"/>
       <c r="J45" s="12"/>
@@ -3727,10 +3735,10 @@
       <c r="L45" s="12"/>
       <c r="M45" s="12"/>
       <c r="N45" s="12" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="O45" s="12" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
     </row>
     <row r="46" spans="1:15">
@@ -3745,7 +3753,7 @@
       </c>
       <c r="D46" s="29"/>
       <c r="E46" s="31" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="F46" s="16"/>
       <c r="G46" s="12"/>
@@ -3769,19 +3777,19 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E47" s="12" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F47" s="16" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G47" s="12" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H47" s="19" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I47" s="12"/>
       <c r="J47" s="12"/>
@@ -3789,10 +3797,10 @@
       <c r="L47" s="12"/>
       <c r="M47" s="12"/>
       <c r="N47" s="12" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="O47" s="12" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="48" spans="1:15" ht="45">
@@ -3806,34 +3814,34 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="E48" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="F48" s="19" t="s">
+        <v>478</v>
+      </c>
+      <c r="G48" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="H48" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="F48" s="19" t="s">
-        <v>480</v>
-      </c>
-      <c r="G48" s="12" t="s">
+      <c r="I48" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="J48" s="12" t="s">
         <v>150</v>
-      </c>
-      <c r="H48" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="I48" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="J48" s="12" t="s">
-        <v>152</v>
       </c>
       <c r="K48" s="12"/>
       <c r="L48" s="12"/>
       <c r="M48" s="12"/>
       <c r="N48" s="12" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="O48" s="12" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="49" spans="1:15" ht="79.5" customHeight="1">
@@ -3847,36 +3855,36 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E49" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="F49" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="G49" s="12" t="s">
+        <v>500</v>
+      </c>
+      <c r="H49" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="I49" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="J49" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="F49" s="16" t="s">
+      <c r="K49" s="12" t="s">
         <v>146</v>
-      </c>
-      <c r="G49" s="12" t="s">
-        <v>504</v>
-      </c>
-      <c r="H49" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="I49" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="J49" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="K49" s="12" t="s">
-        <v>148</v>
       </c>
       <c r="L49" s="12"/>
       <c r="M49" s="12"/>
       <c r="N49" s="12" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="O49" s="12" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="50" spans="1:15" ht="105">
@@ -3890,36 +3898,36 @@
         <v>0.72222222222222221</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="E50" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="F50" s="16" t="s">
+        <v>497</v>
+      </c>
+      <c r="G50" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="H50" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="F50" s="16" t="s">
-        <v>501</v>
-      </c>
-      <c r="G50" s="12" t="s">
+      <c r="I50" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="H50" s="12" t="s">
+      <c r="J50" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="I50" s="12" t="s">
+      <c r="K50" s="12" t="s">
         <v>142</v>
-      </c>
-      <c r="J50" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="K50" s="12" t="s">
-        <v>144</v>
       </c>
       <c r="L50" s="12"/>
       <c r="M50" s="12"/>
       <c r="N50" s="12" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="O50" s="27" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="51" spans="1:15" ht="60">
@@ -3933,34 +3941,34 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E51" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="F51" s="16" t="s">
+        <v>475</v>
+      </c>
+      <c r="G51" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="H51" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="F51" s="16" t="s">
-        <v>477</v>
-      </c>
-      <c r="G51" s="12" t="s">
+      <c r="I51" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="H51" s="12" t="s">
+      <c r="J51" s="12" t="s">
         <v>162</v>
-      </c>
-      <c r="I51" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="J51" s="12" t="s">
-        <v>164</v>
       </c>
       <c r="K51" s="12"/>
       <c r="L51" s="12"/>
       <c r="M51" s="12"/>
       <c r="N51" s="12" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="O51" s="12" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="52" spans="1:15" ht="75">
@@ -3974,34 +3982,34 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="E52" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="F52" s="16" t="s">
+        <v>473</v>
+      </c>
+      <c r="G52" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="H52" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="F52" s="16" t="s">
-        <v>475</v>
-      </c>
-      <c r="G52" s="12" t="s">
+      <c r="I52" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="H52" s="12" t="s">
+      <c r="J52" s="12" t="s">
         <v>155</v>
-      </c>
-      <c r="I52" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="J52" s="12" t="s">
-        <v>157</v>
       </c>
       <c r="K52" s="12"/>
       <c r="L52" s="12"/>
       <c r="M52" s="12"/>
       <c r="N52" s="12" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="O52" s="12" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="53" spans="1:15" ht="90">
@@ -4015,32 +4023,32 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E53" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="F53" s="15" t="s">
+        <v>476</v>
+      </c>
+      <c r="G53" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="H53" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="F53" s="15" t="s">
-        <v>478</v>
-      </c>
-      <c r="G53" s="20" t="s">
+      <c r="I53" s="12" t="s">
         <v>166</v>
-      </c>
-      <c r="H53" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="I53" s="12" t="s">
-        <v>168</v>
       </c>
       <c r="J53" s="12"/>
       <c r="K53" s="12"/>
       <c r="L53" s="12"/>
       <c r="M53" s="12"/>
       <c r="N53" s="12" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="O53" s="12" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="54" spans="1:15">
@@ -4055,7 +4063,7 @@
       </c>
       <c r="D54" s="29"/>
       <c r="E54" s="32" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F54" s="15"/>
       <c r="G54" s="20"/>
@@ -4079,32 +4087,32 @@
         <v>0.72222222222222221</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E55" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="F55" s="15" t="s">
+        <v>477</v>
+      </c>
+      <c r="G55" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="H55" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="I55" s="12" t="s">
         <v>173</v>
-      </c>
-      <c r="F55" s="15" t="s">
-        <v>479</v>
-      </c>
-      <c r="G55" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="H55" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="I55" s="12" t="s">
-        <v>175</v>
       </c>
       <c r="J55" s="12"/>
       <c r="K55" s="12"/>
       <c r="L55" s="12"/>
       <c r="M55" s="12"/>
       <c r="N55" s="12" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="O55" s="12" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="56" spans="1:15" ht="60">
@@ -4118,32 +4126,32 @@
         <v>0.72222222222222221</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E56" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="F56" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="G56" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="F56" s="16" t="s">
+      <c r="H56" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="I56" s="12" t="s">
         <v>177</v>
-      </c>
-      <c r="G56" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="H56" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="I56" s="12" t="s">
-        <v>179</v>
       </c>
       <c r="J56" s="12"/>
       <c r="K56" s="12"/>
       <c r="L56" s="12"/>
       <c r="M56" s="12"/>
       <c r="N56" s="12" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="O56" s="12" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="57" spans="1:15" ht="45">
@@ -4157,34 +4165,34 @@
         <v>0.72222222222222221</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E57" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="F57" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="G57" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="F57" s="16" t="s">
+      <c r="H57" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="G57" s="12" t="s">
+      <c r="I57" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="H57" s="12" t="s">
+      <c r="J57" s="12" t="s">
         <v>183</v>
-      </c>
-      <c r="I57" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="J57" s="12" t="s">
-        <v>185</v>
       </c>
       <c r="K57" s="12"/>
       <c r="L57" s="12"/>
       <c r="M57" s="12"/>
       <c r="N57" s="12" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="O57" s="12" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="58" spans="1:15" ht="30">
@@ -4198,19 +4206,19 @@
         <v>0.72222222222222221</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E58" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="F58" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="G58" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="F58" s="16" t="s">
+      <c r="H58" s="12" t="s">
         <v>170</v>
-      </c>
-      <c r="G58" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="H58" s="12" t="s">
-        <v>172</v>
       </c>
       <c r="I58" s="12"/>
       <c r="J58" s="12"/>
@@ -4218,10 +4226,10 @@
       <c r="L58" s="12"/>
       <c r="M58" s="12"/>
       <c r="N58" s="12" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="O58" s="12" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="59" spans="1:15" ht="60">
@@ -4235,40 +4243,40 @@
         <v>0.72222222222222221</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E59" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="F59" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="G59" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="F59" s="16" t="s">
+      <c r="H59" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="G59" s="12" t="s">
+      <c r="I59" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="J59" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="K59" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="H59" s="12" t="s">
+      <c r="L59" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="I59" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="J59" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="K59" s="12" t="s">
+      <c r="M59" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="L59" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="M59" s="12" t="s">
-        <v>192</v>
-      </c>
       <c r="N59" s="12" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="O59" s="12" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="60" spans="1:15" ht="90">
@@ -4282,17 +4290,19 @@
         <v>0.72222222222222221</v>
       </c>
       <c r="D60" s="11" t="s">
+        <v>481</v>
+      </c>
+      <c r="E60" s="15" t="s">
+        <v>482</v>
+      </c>
+      <c r="F60" s="41" t="s">
         <v>483</v>
       </c>
-      <c r="E60" s="15" t="s">
+      <c r="G60" s="12" t="s">
+        <v>507</v>
+      </c>
+      <c r="H60" s="12" t="s">
         <v>484</v>
-      </c>
-      <c r="F60" s="41" t="s">
-        <v>485</v>
-      </c>
-      <c r="G60" s="12"/>
-      <c r="H60" s="12" t="s">
-        <v>486</v>
       </c>
       <c r="I60" s="12"/>
       <c r="J60" s="12"/>
@@ -4300,10 +4310,10 @@
       <c r="L60" s="12"/>
       <c r="M60" s="12"/>
       <c r="N60" s="12" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="O60" s="12" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="61" spans="1:15" ht="45">
@@ -4318,16 +4328,16 @@
       </c>
       <c r="D61" s="11"/>
       <c r="E61" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="F61" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="G61" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="F61" s="16" t="s">
-        <v>194</v>
-      </c>
-      <c r="G61" s="12" t="s">
-        <v>195</v>
-      </c>
       <c r="H61" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="I61" s="12"/>
       <c r="J61" s="12"/>
@@ -4335,10 +4345,10 @@
       <c r="L61" s="12"/>
       <c r="M61" s="12"/>
       <c r="N61" s="12" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="O61" s="12" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
     </row>
     <row r="62" spans="1:15" ht="45">
@@ -4353,16 +4363,16 @@
       </c>
       <c r="D62" s="11"/>
       <c r="E62" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="F62" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="G62" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="F62" s="16" t="s">
-        <v>197</v>
-      </c>
-      <c r="G62" s="12" t="s">
-        <v>198</v>
-      </c>
       <c r="H62" s="12" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="I62" s="12"/>
       <c r="J62" s="12"/>
@@ -4370,10 +4380,10 @@
       <c r="L62" s="12"/>
       <c r="M62" s="12"/>
       <c r="N62" s="12" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="O62" s="12" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
     </row>
     <row r="63" spans="1:15">
@@ -4388,7 +4398,7 @@
       </c>
       <c r="D63" s="29"/>
       <c r="E63" s="31" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F63" s="16"/>
       <c r="G63" s="12"/>
@@ -4413,29 +4423,29 @@
       </c>
       <c r="D64" s="11"/>
       <c r="E64" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="F64" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="G64" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="F64" s="16" t="s">
+      <c r="H64" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="G64" s="12" t="s">
+      <c r="I64" s="12" t="s">
         <v>201</v>
-      </c>
-      <c r="H64" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="I64" s="12" t="s">
-        <v>203</v>
       </c>
       <c r="J64" s="12"/>
       <c r="K64" s="12"/>
       <c r="L64" s="12"/>
       <c r="M64" s="12"/>
       <c r="N64" s="12" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="O64" s="12" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
     </row>
     <row r="65" spans="1:15">
@@ -5382,8 +5392,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D74"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59"/>
+    <sheetView showRuler="0" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5410,982 +5420,985 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="21" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="21" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D3" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="22" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="21" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C5" t="s">
         <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="21" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C6" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D6" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="21" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C7" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D7" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="21" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C8" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D8" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="21" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C9" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D9" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="21" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C10" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D10" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="21" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C11" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D11" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="21" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D12" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="21" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C13" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D13" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="21" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C14" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D14" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="21" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C15" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D15" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="21" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C16" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D16" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="21" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D17" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="21" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D18" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="21" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C19" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D19" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="21" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C20" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D20" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="21" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C21" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D21" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="21" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C22" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D22" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="21" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C23" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D23" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="21" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>216</v>
+        <v>214</v>
+      </c>
+      <c r="C24" t="s">
+        <v>288</v>
       </c>
       <c r="D24" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="21" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C25" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D25" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="21" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D26" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="21" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C27" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D27" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="21" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C28" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D28" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="21" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C29" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D29" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="21" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C30" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D30" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="21" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C31" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D31" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="21" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C32" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D32" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="22" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B33" s="22" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C33" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D33" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="22" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B34" s="22" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C34" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D34" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="21" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C35" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D35" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="21" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B36" s="21" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C36" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D36" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="21" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B37" s="21" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C37" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D37" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="22" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B38" s="23" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D38" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="21" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B39" s="21" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C39" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D39" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="21" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B40" s="21" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D40" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="21" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B41" s="21" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C41" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D41" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="21" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B42" s="21" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C42" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D42" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="21" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B43" s="21" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C43" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D43" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="21" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B44" s="21" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C44" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D44" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="21" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B45" s="21" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D45" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="21" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B46" s="21" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C46" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D46" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="21" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B47" s="21" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C47" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D47" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="21" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B48" s="21" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C48" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D48" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="21" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B49" s="21" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C49" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D49" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="21" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B50" s="21" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C50" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D50" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="21" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B51" s="21" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C51" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D51" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="21" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B52" s="21" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C52" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D52" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="21" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B53" s="21" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C53" t="s">
         <v>18</v>
       </c>
       <c r="D53" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="21" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B54" s="21" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D54" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="21" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B55" s="21" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C55" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D55" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="21" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B56" s="21" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C56" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D56" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="21" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B57" s="21" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C57" t="s">
         <v>17</v>
       </c>
       <c r="D57" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="21" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="B58" s="21" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="C58" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D58" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="22" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B59" s="22" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C59" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D59" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="21" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B60" s="21" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C60" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D60" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="21" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B61" s="21" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C61" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D61" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="21" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B62" s="21" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D62" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="21" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B63" s="21" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C63" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D63" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="22" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B64" s="23" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D64" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="21" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B65" s="21" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C65" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D65" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="21" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B66" s="21" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C66" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D66" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="21" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B67" s="21" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C67" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D67" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="21" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B68" s="21" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C68" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D68" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="21" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B69" s="21" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D69" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="21" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B70" s="21" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C70" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D70" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="21" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B71" s="21" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D71" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="21" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B72" s="21" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C72" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D72" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="22" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B73" s="22" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C73" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D73" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="21" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B74" s="21" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C74" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D74" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
   </sheetData>
